--- a/sdsd.xlsx
+++ b/sdsd.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D978AD-5187-4250-ACD4-AD72D5C3D46C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>태종대</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>일품한우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>해동용궁사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>횟집</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>해운대 다퍼주는 집 &amp; 조개찜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,14 +94,38 @@
   </si>
   <si>
     <t>3일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18번완당집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이옥 베트남 쌀국수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오륙도가원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 다리 건너야함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박선장 횟집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10시 이후 오픈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +138,14 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -141,20 +166,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -203,7 +234,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -236,9 +267,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,6 +319,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -446,142 +511,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
         <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{C17081FE-F711-4E8F-84CA-CB25069C69CE}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{9587B49D-80EE-4293-A79A-050B34709976}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{DD3D3F96-0E2F-4222-959A-21E2951418EB}"/>
+    <hyperlink ref="D12" r:id="rId4" xr:uid="{6D27AD33-5C1B-44EE-B8CB-E77B4E1A79A4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -594,7 +689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
